--- a/SPPSApi/Doc/Template/FS0625.xlsx
+++ b/SPPSApi/Doc/Template/FS0625.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,43 @@
   </si>
   <si>
     <t>受入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭕/×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装设定</t>
+  </si>
+  <si>
+    <t>品质确认</t>
+  </si>
+  <si>
+    <t>内制引取器具检证</t>
+  </si>
+  <si>
+    <t>物流测试</t>
+  </si>
+  <si>
+    <t>作业训练</t>
+  </si>
+  <si>
+    <t>新规供应商</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>实际纳入数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,9 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -467,15 +506,17 @@
     <col min="3" max="3" width="21.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.7265625" style="1"/>
+    <col min="6" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
     <col min="12" max="13" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,15 +560,18 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -536,7 +580,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
@@ -549,6 +593,18 @@
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$9:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$F$12:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -557,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
+      <selection activeCell="F12" sqref="F12:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -591,8 +647,56 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0625.xlsx
+++ b/SPPSApi/Doc/Template/FS0625.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="导入实例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +149,107 @@
   </si>
   <si>
     <t>实际纳入数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否新规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE=SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号试数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号试目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单预计发行日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单预计纳入日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入便次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际纳入数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际纳入日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算订单验收日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16400F203000</t>
+  </si>
+  <si>
+    <t>RADIATOR ASSY</t>
+  </si>
+  <si>
+    <t>外注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：红色的列头数据必须输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +272,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,9 +322,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,6 +347,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -702,18 +862,246 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2730</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:H9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0625.xlsx
+++ b/SPPSApi/Doc/Template/FS0625.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内制</t>
   </si>
   <si>
@@ -226,13 +218,6 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16400F203000</t>
   </si>
   <si>
     <t>RADIATOR ASSY</t>
@@ -242,14 +227,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注意：红色的列头数据必须输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>281B</t>
+  </si>
+  <si>
+    <t>16400F203001</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -687,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -720,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -776,87 +772,82 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -881,78 +872,78 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -960,13 +951,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -977,10 +968,21 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
+    <row r="5" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1013,12 +1015,12 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1056,52 +1058,11 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C6:H9"/>
+    <mergeCell ref="C5:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0625.xlsx
+++ b/SPPSApi/Doc/Template/FS0625.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="导入实例" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单预计发行日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单预计纳入日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,14 +177,6 @@
   </si>
   <si>
     <t>号试数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号试目的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单预计发行日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意：红色的列头数据必须输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>281B</t>
   </si>
   <si>
@@ -247,6 +231,27 @@
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发行日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发行日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280B</t>
+  </si>
+  <si>
+    <t>16400F203000</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>手配文件导入实例：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,7 +306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,18 +335,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,13 +382,205 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="889000"/>
+          <a:ext cx="10823575" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>导入文件说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>新增（以上绿色数据）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>需要保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>车型、品番、品名、内外、供应商代码、受入、号试数量、号试目的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>数据格式录入，不能为空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
+      <sheetName val="导入实例"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -683,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -707,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -779,75 +1008,75 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -859,210 +1088,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="13" max="19" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="E3" s="8">
+        <v>2731</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2731</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2730</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:H8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>